--- a/2026/data/clasificacion_inicial_B.xlsx
+++ b/2026/data/clasificacion_inicial_B.xlsx
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Puche</t>
+          <t>Fale</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -506,7 +506,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Kike</t>
+          <t>Ruso</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -534,7 +534,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Coquina</t>
+          <t>Lope</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -562,7 +562,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Armada</t>
+          <t>Puche</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -618,7 +618,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Palop</t>
+          <t>Coquina</t>
         </is>
       </c>
       <c r="B7" t="n">
